--- a/natmiOut/OldD0/LR-pairs_lrc2p/Slit3-Robo1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Slit3-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.424014147503848</v>
+        <v>1.044914666666666</v>
       </c>
       <c r="H2">
-        <v>0.424014147503848</v>
+        <v>3.134744</v>
       </c>
       <c r="I2">
-        <v>0.002751881232803362</v>
+        <v>0.006668841574421894</v>
       </c>
       <c r="J2">
-        <v>0.002751881232803362</v>
+        <v>0.006668841574421893</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>16.6901170180178</v>
+        <v>0.1757713333333334</v>
       </c>
       <c r="N2">
-        <v>16.6901170180178</v>
+        <v>0.5273140000000001</v>
       </c>
       <c r="O2">
-        <v>0.9215375091053061</v>
+        <v>0.009444264308298454</v>
       </c>
       <c r="P2">
-        <v>0.9215375091053061</v>
+        <v>0.009444264308298454</v>
       </c>
       <c r="Q2">
-        <v>7.076845739134284</v>
+        <v>0.1836660441795555</v>
       </c>
       <c r="R2">
-        <v>7.076845739134284</v>
+        <v>1.652994397616</v>
       </c>
       <c r="S2">
-        <v>0.002535961776631249</v>
+        <v>6.298230245900955E-05</v>
       </c>
       <c r="T2">
-        <v>0.002535961776631249</v>
+        <v>6.298230245900955E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.424014147503848</v>
+        <v>1.044914666666666</v>
       </c>
       <c r="H3">
-        <v>0.424014147503848</v>
+        <v>3.134744</v>
       </c>
       <c r="I3">
-        <v>0.002751881232803362</v>
+        <v>0.006668841574421894</v>
       </c>
       <c r="J3">
-        <v>0.002751881232803362</v>
+        <v>0.006668841574421893</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.42104704541978</v>
+        <v>16.98312366666667</v>
       </c>
       <c r="N3">
-        <v>1.42104704541978</v>
+        <v>50.949371</v>
       </c>
       <c r="O3">
-        <v>0.07846249089469398</v>
+        <v>0.9125100529581165</v>
       </c>
       <c r="P3">
-        <v>0.07846249089469398</v>
+        <v>0.9125100529581165</v>
       </c>
       <c r="Q3">
-        <v>0.6025440515265301</v>
+        <v>17.74591500511378</v>
       </c>
       <c r="R3">
-        <v>0.6025440515265301</v>
+        <v>159.713235046024</v>
       </c>
       <c r="S3">
-        <v>0.000215919456172113</v>
+        <v>0.006085384978245011</v>
       </c>
       <c r="T3">
-        <v>0.000215919456172113</v>
+        <v>0.00608538497824501</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>126.173273307132</v>
+        <v>1.044914666666666</v>
       </c>
       <c r="H4">
-        <v>126.173273307132</v>
+        <v>3.134744</v>
       </c>
       <c r="I4">
-        <v>0.8188732968918565</v>
+        <v>0.006668841574421894</v>
       </c>
       <c r="J4">
-        <v>0.8188732968918565</v>
+        <v>0.006668841574421893</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.6901170180178</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="N4">
-        <v>16.6901170180178</v>
+        <v>4.357627</v>
       </c>
       <c r="O4">
-        <v>0.9215375091053061</v>
+        <v>0.07804568273358503</v>
       </c>
       <c r="P4">
-        <v>0.9215375091053061</v>
+        <v>0.07804568273358505</v>
       </c>
       <c r="Q4">
-        <v>2105.846696042375</v>
+        <v>1.517782788054222</v>
       </c>
       <c r="R4">
-        <v>2105.846696042375</v>
+        <v>13.660045092488</v>
       </c>
       <c r="S4">
-        <v>0.7546224582905712</v>
+        <v>0.0005204742937178728</v>
       </c>
       <c r="T4">
-        <v>0.7546224582905712</v>
+        <v>0.0005204742937178729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.173273307132</v>
+        <v>127.867017</v>
       </c>
       <c r="H5">
-        <v>126.173273307132</v>
+        <v>383.601051</v>
       </c>
       <c r="I5">
-        <v>0.8188732968918565</v>
+        <v>0.8160713081836135</v>
       </c>
       <c r="J5">
-        <v>0.8188732968918565</v>
+        <v>0.8160713081836134</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.42104704541978</v>
+        <v>0.1757713333333334</v>
       </c>
       <c r="N5">
-        <v>1.42104704541978</v>
+        <v>0.5273140000000001</v>
       </c>
       <c r="O5">
-        <v>0.07846249089469398</v>
+        <v>0.009444264308298454</v>
       </c>
       <c r="P5">
-        <v>0.07846249089469398</v>
+        <v>0.009444264308298454</v>
       </c>
       <c r="Q5">
-        <v>179.2981572440424</v>
+        <v>22.475356067446</v>
       </c>
       <c r="R5">
-        <v>179.2981572440424</v>
+        <v>202.278204607014</v>
       </c>
       <c r="S5">
-        <v>0.06425083860128533</v>
+        <v>0.007707193128904929</v>
       </c>
       <c r="T5">
-        <v>0.06425083860128533</v>
+        <v>0.007707193128904928</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.4842704445405</v>
+        <v>127.867017</v>
       </c>
       <c r="H6">
-        <v>27.4842704445405</v>
+        <v>383.601051</v>
       </c>
       <c r="I6">
-        <v>0.1783748218753402</v>
+        <v>0.8160713081836135</v>
       </c>
       <c r="J6">
-        <v>0.1783748218753402</v>
+        <v>0.8160713081836134</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.6901170180178</v>
+        <v>16.98312366666667</v>
       </c>
       <c r="N6">
-        <v>16.6901170180178</v>
+        <v>50.949371</v>
       </c>
       <c r="O6">
-        <v>0.9215375091053061</v>
+        <v>0.9125100529581165</v>
       </c>
       <c r="P6">
-        <v>0.9215375091053061</v>
+        <v>0.9125100529581165</v>
       </c>
       <c r="Q6">
-        <v>458.715689874229</v>
+        <v>2171.581362598769</v>
       </c>
       <c r="R6">
-        <v>458.715689874229</v>
+        <v>19544.23226338892</v>
       </c>
       <c r="S6">
-        <v>0.1643790890381037</v>
+        <v>0.7446732726482286</v>
       </c>
       <c r="T6">
-        <v>0.1643790890381037</v>
+        <v>0.7446732726482285</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.4842704445405</v>
+        <v>127.867017</v>
       </c>
       <c r="H7">
-        <v>27.4842704445405</v>
+        <v>383.601051</v>
       </c>
       <c r="I7">
-        <v>0.1783748218753402</v>
+        <v>0.8160713081836135</v>
       </c>
       <c r="J7">
-        <v>0.1783748218753402</v>
+        <v>0.8160713081836134</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.42104704541978</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="N7">
-        <v>1.42104704541978</v>
+        <v>4.357627</v>
       </c>
       <c r="O7">
-        <v>0.07846249089469398</v>
+        <v>0.07804568273358503</v>
       </c>
       <c r="P7">
-        <v>0.07846249089469398</v>
+        <v>0.07804568273358505</v>
       </c>
       <c r="Q7">
-        <v>39.05644131073246</v>
+        <v>185.732255229553</v>
       </c>
       <c r="R7">
-        <v>39.05644131073246</v>
+        <v>1671.590297065977</v>
       </c>
       <c r="S7">
-        <v>0.01399573283723654</v>
+        <v>0.06369084240648</v>
       </c>
       <c r="T7">
-        <v>0.01399573283723654</v>
+        <v>0.06369084240648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>27.77415166666666</v>
+      </c>
+      <c r="H8">
+        <v>83.32245499999999</v>
+      </c>
+      <c r="I8">
+        <v>0.1772598502419647</v>
+      </c>
+      <c r="J8">
+        <v>0.1772598502419647</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1757713333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.5273140000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.009444264308298454</v>
+      </c>
+      <c r="P8">
+        <v>0.009444264308298454</v>
+      </c>
+      <c r="Q8">
+        <v>4.881899670652222</v>
+      </c>
+      <c r="R8">
+        <v>43.93709703587</v>
+      </c>
+      <c r="S8">
+        <v>0.001674088876934516</v>
+      </c>
+      <c r="T8">
+        <v>0.001674088876934516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>27.77415166666666</v>
+      </c>
+      <c r="H9">
+        <v>83.32245499999999</v>
+      </c>
+      <c r="I9">
+        <v>0.1772598502419647</v>
+      </c>
+      <c r="J9">
+        <v>0.1772598502419647</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>16.98312366666667</v>
+      </c>
+      <c r="N9">
+        <v>50.949371</v>
+      </c>
+      <c r="O9">
+        <v>0.9125100529581165</v>
+      </c>
+      <c r="P9">
+        <v>0.9125100529581165</v>
+      </c>
+      <c r="Q9">
+        <v>471.6918524917561</v>
+      </c>
+      <c r="R9">
+        <v>4245.226672425804</v>
+      </c>
+      <c r="S9">
+        <v>0.161751395331643</v>
+      </c>
+      <c r="T9">
+        <v>0.161751395331643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>27.77415166666666</v>
+      </c>
+      <c r="H10">
+        <v>83.32245499999999</v>
+      </c>
+      <c r="I10">
+        <v>0.1772598502419647</v>
+      </c>
+      <c r="J10">
+        <v>0.1772598502419647</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.452542333333333</v>
+      </c>
+      <c r="N10">
+        <v>4.357627</v>
+      </c>
+      <c r="O10">
+        <v>0.07804568273358503</v>
+      </c>
+      <c r="P10">
+        <v>0.07804568273358505</v>
+      </c>
+      <c r="Q10">
+        <v>40.34313106825389</v>
+      </c>
+      <c r="R10">
+        <v>363.088179614285</v>
+      </c>
+      <c r="S10">
+        <v>0.01383436603338717</v>
+      </c>
+      <c r="T10">
+        <v>0.01383436603338717</v>
       </c>
     </row>
   </sheetData>
